--- a/Main Assesment/Data/bb7.xlsx
+++ b/Main Assesment/Data/bb7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/wsp25_ic_ac_uk/Documents/Documents/bb data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonporteus/Documents/GitHub/ssb_s5/Main Assesment/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F66AB28-A53B-439A-8349-34DD689DE0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE44B163-544D-F34B-AFCB-74261E4F1D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B7C6F7D6-97AF-4838-8D4D-CBB3BB89A768}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19440" windowHeight="15000" xr2:uid="{B7C6F7D6-97AF-4838-8D4D-CBB3BB89A768}"/>
   </bookViews>
   <sheets>
     <sheet name="End point" sheetId="1" r:id="rId1"/>
@@ -247,9 +247,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -617,412 +616,476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C277CA0E-2D2C-41C3-B51C-85238AB09070}">
-  <dimension ref="A3:O22"/>
+  <dimension ref="A3:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>6</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>7</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>8</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>9</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>10</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>11</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>12</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>80224</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>44272</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>22276</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>11372</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>5605</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>2810</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>1400</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>739</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>393</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>201</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>113</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="M15" s="4"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>78332</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>43155</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>21989</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>11278</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>5547</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>2813</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>1410</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>711</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>379</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>197</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>106</v>
       </c>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>78213</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>42749</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>22214</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>11246</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>5699</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>2790</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>1462</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>752</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>388</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>200</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>104</v>
       </c>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>79154</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>43793</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>22224</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>11133</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>5565</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>2674</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>1380</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>707</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>357</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>198</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>104</v>
       </c>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>79851</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>43262</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>22039</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>11068</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>5590</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>2803</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>1410</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>712</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>365</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>185</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>84</v>
       </c>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>78790</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>43238</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>22194</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>11286</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>5487</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>2712</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>1328</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>689</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>364</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>185</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>78</v>
       </c>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>78179</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>42888</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>21969</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>10847</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>5448</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>2746</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>1340</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>679</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>339</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>181</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>97</v>
       </c>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>76912</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>42159</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>21487</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>10945</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>5489</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>2697</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>1326</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>687</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>332</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>184</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <v>93</v>
       </c>
-      <c r="M22" s="11"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f>STDEV(B15:B22)/AVERAGE(B15:B22)</f>
+        <v>1.3327402239383054E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:L23" si="0">STDEV(C15:C22)/AVERAGE(C15:C22)</f>
+        <v>1.4881567215052171E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.158004263305447E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.64075556795256E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.4443454457297989E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>2.0237591787820263E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>3.4715039484891241E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>3.5925995255718823E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>5.9887967245951669E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>4.353394789288844E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0.12150351671498827</v>
+      </c>
+      <c r="M23">
+        <f>AVERAGE(B23:L23)</f>
+        <v>3.5131280055142905E-2</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B15:L22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>